--- a/Gen_3/out/8.xlsx
+++ b/Gen_3/out/8.xlsx
@@ -1955,7 +1955,7 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>flam_density_of_heat_flux</t>
+          <t>flam_density_of_heat_flux_ser2</t>
         </is>
       </c>
       <c r="B153" t="inlineStr"/>
@@ -1963,7 +1963,7 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>flam</t>
+          <t>flam_ser2</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -1971,7 +1971,7 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>flam_time</t>
+          <t>flam_time_ser2</t>
         </is>
       </c>
       <c r="B155" t="inlineStr"/>
@@ -1979,7 +1979,7 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>flam_dop_inf</t>
+          <t>flam_dop_inf_ser2</t>
         </is>
       </c>
       <c r="B156" t="inlineStr"/>
@@ -1987,7 +1987,7 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>exp_num</t>
+          <t>exp_num_ser2</t>
         </is>
       </c>
       <c r="B157" t="inlineStr"/>
@@ -1995,7 +1995,7 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>flam_density_of_heat_flux</t>
+          <t>flam_density_of_heat_flux_ser3</t>
         </is>
       </c>
       <c r="B158" t="inlineStr"/>
@@ -2003,7 +2003,7 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>flam</t>
+          <t>flam_ser3</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -2011,7 +2011,7 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>flam_time</t>
+          <t>flam_time_ser3</t>
         </is>
       </c>
       <c r="B160" t="inlineStr"/>
@@ -2019,7 +2019,7 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>flam_dop_inf</t>
+          <t>flam_dop_inf_ser3</t>
         </is>
       </c>
       <c r="B161" t="inlineStr"/>
@@ -2027,7 +2027,7 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>exp_num</t>
+          <t>exp_num_ser3</t>
         </is>
       </c>
       <c r="B162" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>flam_density_of_heat_flux</t>
+          <t>flam_density_of_heat_flux_ser4</t>
         </is>
       </c>
       <c r="B163" t="inlineStr"/>
@@ -2043,7 +2043,7 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>flam</t>
+          <t>flam_ser4</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -2051,7 +2051,7 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>flam_time</t>
+          <t>flam_time_ser4</t>
         </is>
       </c>
       <c r="B165" t="inlineStr"/>
@@ -2059,7 +2059,7 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>flam_dop_inf</t>
+          <t>flam_dop_inf_ser4</t>
         </is>
       </c>
       <c r="B166" t="inlineStr"/>
@@ -2067,7 +2067,7 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>exp_num</t>
+          <t>exp_num_ser4</t>
         </is>
       </c>
       <c r="B167" t="inlineStr"/>
@@ -2075,7 +2075,7 @@
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>flam_density_of_heat_flux</t>
+          <t>flam_density_of_heat_flux_ser5</t>
         </is>
       </c>
       <c r="B168" t="inlineStr"/>
@@ -2083,7 +2083,7 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>flam</t>
+          <t>flam_ser5</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
@@ -2091,7 +2091,7 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>flam_time</t>
+          <t>flam_time_ser5</t>
         </is>
       </c>
       <c r="B170" t="inlineStr"/>
@@ -2099,7 +2099,7 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>flam_dop_inf</t>
+          <t>flam_dop_inf_ser5</t>
         </is>
       </c>
       <c r="B171" t="inlineStr"/>
@@ -2107,7 +2107,7 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>exp_num</t>
+          <t>exp_num_ser5</t>
         </is>
       </c>
       <c r="B172" t="inlineStr"/>
@@ -2115,7 +2115,7 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>flam_density_of_heat_flux</t>
+          <t>flam_density_of_heat_flux_ser6</t>
         </is>
       </c>
       <c r="B173" t="inlineStr"/>
@@ -2123,7 +2123,7 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>flam</t>
+          <t>flam_ser6</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -2131,7 +2131,7 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>flam_time</t>
+          <t>flam_time_ser6</t>
         </is>
       </c>
       <c r="B175" t="inlineStr"/>
@@ -2139,7 +2139,7 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>flam_dop_inf</t>
+          <t>flam_dop_inf_ser6</t>
         </is>
       </c>
       <c r="B176" t="inlineStr"/>
@@ -2147,7 +2147,7 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>exp_num</t>
+          <t>exp_num_ser6</t>
         </is>
       </c>
       <c r="B177" t="inlineStr"/>
@@ -2155,7 +2155,7 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>flam_density_of_heat_flux</t>
+          <t>flam_density_of_heat_flux_ser7</t>
         </is>
       </c>
       <c r="B178" t="inlineStr"/>
@@ -2163,7 +2163,7 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>flam</t>
+          <t>flam_ser7</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -2171,7 +2171,7 @@
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>flam_time</t>
+          <t>flam_time_ser7</t>
         </is>
       </c>
       <c r="B180" t="inlineStr"/>
@@ -2179,7 +2179,7 @@
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>flam_dop_inf</t>
+          <t>flam_dop_inf_ser7</t>
         </is>
       </c>
       <c r="B181" t="inlineStr"/>
@@ -2187,7 +2187,7 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>exp_num</t>
+          <t>exp_num_ser7</t>
         </is>
       </c>
       <c r="B182" t="inlineStr"/>
@@ -2195,7 +2195,7 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>flam_density_of_heat_flux</t>
+          <t>flam_density_of_heat_flux_ser8</t>
         </is>
       </c>
       <c r="B183" t="inlineStr"/>
@@ -2203,7 +2203,7 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>flam</t>
+          <t>flam_ser8</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
@@ -2211,7 +2211,7 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>flam_time</t>
+          <t>flam_time_ser8</t>
         </is>
       </c>
       <c r="B185" t="inlineStr"/>
@@ -2219,7 +2219,7 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>flam_dop_inf</t>
+          <t>flam_dop_inf_ser8</t>
         </is>
       </c>
       <c r="B186" t="inlineStr"/>
@@ -2227,7 +2227,7 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>exp_num</t>
+          <t>exp_num_ser8</t>
         </is>
       </c>
       <c r="B187" t="inlineStr"/>
@@ -2235,7 +2235,7 @@
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>flam_density_of_heat_flux</t>
+          <t>flam_density_of_heat_flux_ser9</t>
         </is>
       </c>
       <c r="B188" t="inlineStr"/>
@@ -2243,7 +2243,7 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>flam</t>
+          <t>flam_ser9</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -2251,7 +2251,7 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>flam_time</t>
+          <t>flam_time_ser9</t>
         </is>
       </c>
       <c r="B190" t="inlineStr"/>
@@ -2259,7 +2259,7 @@
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>flam_dop_inf</t>
+          <t>flam_dop_inf_ser9</t>
         </is>
       </c>
       <c r="B191" t="inlineStr"/>
@@ -2267,7 +2267,7 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>exp_num</t>
+          <t>exp_num_ser9</t>
         </is>
       </c>
       <c r="B192" t="inlineStr"/>
@@ -2275,7 +2275,7 @@
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>flam_density_of_heat_flux</t>
+          <t>flam_density_of_heat_flux_ser10</t>
         </is>
       </c>
       <c r="B193" t="inlineStr"/>
@@ -2283,7 +2283,7 @@
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>flam</t>
+          <t>flam_ser10</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
@@ -2291,7 +2291,7 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>flam_time</t>
+          <t>flam_time_ser10</t>
         </is>
       </c>
       <c r="B195" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>flam_dop_inf</t>
+          <t>flam_dop_inf_ser10</t>
         </is>
       </c>
       <c r="B196" t="inlineStr"/>
@@ -2307,7 +2307,7 @@
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>exp_num</t>
+          <t>exp_num_ser10</t>
         </is>
       </c>
       <c r="B197" t="inlineStr"/>
@@ -2315,7 +2315,7 @@
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>flam_density_of_heat_flux</t>
+          <t>flam_density_of_heat_flux_ser11</t>
         </is>
       </c>
       <c r="B198" t="inlineStr"/>
@@ -2323,7 +2323,7 @@
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>flam</t>
+          <t>flam_ser11</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -2331,7 +2331,7 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>flam_time</t>
+          <t>flam_time_ser11</t>
         </is>
       </c>
       <c r="B200" t="inlineStr"/>
@@ -2339,7 +2339,7 @@
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>flam_dop_inf</t>
+          <t>flam_dop_inf_ser11</t>
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
@@ -2347,7 +2347,7 @@
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>exp_num</t>
+          <t>exp_num_ser11</t>
         </is>
       </c>
       <c r="B202" t="inlineStr"/>
@@ -2355,7 +2355,7 @@
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>flam_density_of_heat_flux</t>
+          <t>flam_density_of_heat_flux_ser12</t>
         </is>
       </c>
       <c r="B203" t="inlineStr"/>
@@ -2363,7 +2363,7 @@
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>flam</t>
+          <t>flam_ser12</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -2371,7 +2371,7 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>flam_time</t>
+          <t>flam_time_ser12</t>
         </is>
       </c>
       <c r="B205" t="inlineStr"/>
@@ -2379,7 +2379,7 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>flam_dop_inf</t>
+          <t>flam_dop_inf_ser12</t>
         </is>
       </c>
       <c r="B206" t="inlineStr"/>
@@ -2387,7 +2387,7 @@
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>exp_num</t>
+          <t>exp_num_ser12</t>
         </is>
       </c>
       <c r="B207" t="inlineStr"/>
@@ -2395,7 +2395,7 @@
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>flam_density_of_heat_flux</t>
+          <t>flam_density_of_heat_flux_ser13</t>
         </is>
       </c>
       <c r="B208" t="inlineStr"/>
@@ -2403,7 +2403,7 @@
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>flam</t>
+          <t>flam_ser13</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -2411,7 +2411,7 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>flam_time</t>
+          <t>flam_time_ser13</t>
         </is>
       </c>
       <c r="B210" t="inlineStr"/>
@@ -2419,7 +2419,7 @@
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>flam_dop_inf</t>
+          <t>flam_dop_inf_ser13</t>
         </is>
       </c>
       <c r="B211" t="inlineStr"/>
@@ -2427,7 +2427,7 @@
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>exp_num</t>
+          <t>exp_num_ser13</t>
         </is>
       </c>
       <c r="B212" t="inlineStr"/>
@@ -2435,7 +2435,7 @@
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>flam_density_of_heat_flux</t>
+          <t>flam_density_of_heat_flux_ser14</t>
         </is>
       </c>
       <c r="B213" t="inlineStr"/>
@@ -2443,7 +2443,7 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>flam</t>
+          <t>flam_ser14</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -2451,7 +2451,7 @@
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>flam_time</t>
+          <t>flam_time_ser14</t>
         </is>
       </c>
       <c r="B215" t="inlineStr"/>
@@ -2459,7 +2459,7 @@
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>flam_dop_inf</t>
+          <t>flam_dop_inf_ser14</t>
         </is>
       </c>
       <c r="B216" t="inlineStr"/>
@@ -2467,7 +2467,7 @@
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>exp_num</t>
+          <t>exp_num_ser14</t>
         </is>
       </c>
       <c r="B217" t="inlineStr"/>
@@ -2475,7 +2475,7 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>flam_density_of_heat_flux</t>
+          <t>flam_density_of_heat_flux_ser15</t>
         </is>
       </c>
       <c r="B218" t="inlineStr"/>
@@ -2483,7 +2483,7 @@
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>flam</t>
+          <t>flam_ser15</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -2491,7 +2491,7 @@
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>flam_time</t>
+          <t>flam_time_ser15</t>
         </is>
       </c>
       <c r="B220" t="inlineStr"/>
@@ -2499,7 +2499,7 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>flam_dop_inf</t>
+          <t>flam_dop_inf_ser15</t>
         </is>
       </c>
       <c r="B221" t="inlineStr"/>
@@ -2507,7 +2507,7 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>exp_num</t>
+          <t>exp_num_ser15</t>
         </is>
       </c>
       <c r="B222" t="inlineStr"/>
